--- a/biology/Médecine/Janet_Vaughan/Janet_Vaughan.xlsx
+++ b/biology/Médecine/Janet_Vaughan/Janet_Vaughan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janet Maria Vaughan (18 octobre 1899 – 9 janvier 1993) est une médecin physiologiste et universitaire britannique. Elle est principale du Somerville College de 1945 à 1967.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Clifton, Bristol, elle est la fille de William Wyamar Vaughan (en), cousin de Virginia Woolf et ancien directeur de la Rugby School.
 Vaughan est éduquée à domicile puis à North Foreland Lodge, au Somerville College et à Oxford où elle étudie sous la supervision de Charles Sherrington et de J. B. S. Haldane.
-Elle est principale du Somerville College de 1945 jusqu'à sa retraite en 1967. Elle a été principale alors que Margaret Roberts étudiait dans cette école, étudiante qui deviendra plus tard le premier ministre britannique Margaret Thatcher[1],[2].
-Elle est faite dame commandeur de l'Empire britannique (DBE) en 1957 et elle est élue membre de la Royal Society en 1979[3].
+Elle est principale du Somerville College de 1945 jusqu'à sa retraite en 1967. Elle a été principale alors que Margaret Roberts étudiait dans cette école, étudiante qui deviendra plus tard le premier ministre britannique Margaret Thatcher,.
+Elle est faite dame commandeur de l'Empire britannique (DBE) en 1957 et elle est élue membre de la Royal Society en 1979.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'est mariée avec David Gourlay, de la Wayfarers' Travel Agency, en 1930. Ils ont eu deux filles
 </t>
